--- a/03 - mapa-producao/Outros/Mapa_Copia.xlsx
+++ b/03 - mapa-producao/Outros/Mapa_Copia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,20 +478,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>720847</v>
+        <v>723263</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AEREO 1.2M SELENE</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -518,20 +518,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>720848</v>
+        <v>723264</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PAINEL EXTENSIVEL TULUM</t>
+          <t>RACK DUBAI 1.6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -558,20 +558,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>720850</v>
+        <v>723265</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.8</t>
+          <t>CABECEIRA ILHABELA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -598,20 +598,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>720851</v>
+        <v>723266</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RACK COLORADO</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -638,20 +638,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>720852</v>
+        <v>723267</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PAINEL HOME FRIBURGO</t>
+          <t>PAINEL SANTORINI</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -678,20 +678,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>720853</v>
+        <v>720859</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M SELENE</t>
+          <t>BUFFET RETRO 1.4 PARTE 1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -718,20 +718,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>720855</v>
+        <v>723189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RACK CRONOS 1.8</t>
+          <t>HOME MUNIQUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -758,20 +758,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>24/06/2025</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>720856</v>
+        <v>723268</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>CRISTALEIRA 0.65M SELENE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -803,15 +803,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>720858</v>
+        <v>723269</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
+          <t>AEREO MICROONDAS 0.8M SELENE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -838,20 +838,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>719069</v>
+        <v>719089</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>NICHO CURVO 1.4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -878,20 +878,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>719071</v>
+        <v>719070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>NICHO CURVO 2.2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -918,20 +918,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>719091</v>
+        <v>723270</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 2.2</t>
+          <t>HOME VIENA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -958,20 +958,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>719082</v>
+        <v>724841</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 1.4</t>
+          <t>MESA DE TV AURUM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -998,20 +998,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>719089</v>
+        <v>724862</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NICHO CURVO 1.4</t>
+          <t>RACK GOLD</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1038,20 +1038,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>719070</v>
+        <v>724843</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NICHO CURVO 2.2</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1078,20 +1078,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>723251</v>
+        <v>726241</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TORRE QUENTE 0.65M SELENE</t>
+          <t>CABECEIRA LARANJEIRAS 2.4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1118,20 +1118,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>723252</v>
+        <v>728688</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>BALCAO 1.2M SELENE</t>
+          <t>MESA DE CABECEIRA BUZIOS</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1158,20 +1158,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>723254</v>
+        <v>724844</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M SELENE</t>
+          <t>TORRE QUENTE 0.65M SELENE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1198,20 +1198,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>723255</v>
+        <v>724846</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>PAINEL HOME FRIBURGO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1238,20 +1238,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>723256</v>
+        <v>724847</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>PAINEL HOME MARAGOGI</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1278,20 +1278,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>723257</v>
+        <v>724842</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M SELENE</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1318,20 +1318,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>723258</v>
+        <v>724848</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1358,20 +1358,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>723259</v>
+        <v>719091</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HOME ATLANTA</t>
+          <t>PRATELEIRA CURVA 2.2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1398,20 +1398,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>726452</v>
+        <v>719082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>APARADOR OLIMPO</t>
+          <t>PRATELEIRA CURVA 1.4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1438,20 +1438,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>726453</v>
+        <v>720857</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO OLIMPO</t>
+          <t>PRATELEIRA 2.2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1478,20 +1478,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>723260</v>
+        <v>724849</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>MULTIUSO RETRO  PARTE 1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1518,20 +1518,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>723261</v>
+        <v>724851</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1558,20 +1558,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>723262</v>
+        <v>724852</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HOME ALAGOAS</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1598,20 +1598,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>723263</v>
+        <v>724856</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>BUFFET AURA 1.4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1638,20 +1638,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>723264</v>
+        <v>724860</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.6</t>
+          <t>AEREO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1678,20 +1678,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>723265</v>
+        <v>724861</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CABECEIRA ILHABELA</t>
+          <t>RACK CRONOS 2.2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1723,15 +1723,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>723266</v>
+        <v>724863</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>BALCAO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1763,15 +1763,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>723267</v>
+        <v>724865</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PAINEL SANTORINI</t>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1798,20 +1798,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>720859</v>
+        <v>724866</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>BUFFET RETRO 1.4 PARTE 1</t>
+          <t>PAINEL HOME HAVANA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1843,15 +1843,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>723189</v>
+        <v>724867</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HOME MUNIQUE</t>
+          <t>PRATELEIRA 1.4</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1878,20 +1878,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>723268</v>
+        <v>724868</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.65M SELENE</t>
+          <t>PAINEL HOME LUGANO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1918,20 +1918,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>723269</v>
+        <v>723271</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>AEREO MICROONDAS 0.8M SELENE</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1958,20 +1958,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>723270</v>
+        <v>726236</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>AEREO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1998,20 +1998,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>724841</v>
+        <v>726237</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>MESA DE TV AURUM</t>
+          <t>PAINEL EXTENSIVEL TUTI</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2038,20 +2038,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>724842</v>
+        <v>726259</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>ESTANTE IPANEMA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2078,20 +2078,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>724862</v>
+        <v>726238</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RACK GOLD</t>
+          <t>RACK RECIFE</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2123,15 +2123,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>724843</v>
+        <v>726239</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2158,20 +2158,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>724844</v>
+        <v>726240</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>TORRE QUENTE 0.65M SELENE</t>
+          <t>HOME NAPOLI</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2198,20 +2198,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>724846</v>
+        <v>726242</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PAINEL HOME FRIBURGO</t>
+          <t>RACK SAO FRANCISCO</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2238,20 +2238,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>724847</v>
+        <v>726243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PAINEL HOME MARAGOGI</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2278,20 +2278,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>724848</v>
+        <v>726244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
+          <t>RACK NEW BLUMENAU</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2318,20 +2318,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>720857</v>
+        <v>726245</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PRATELEIRA 2.2</t>
+          <t>RACK ARACATUBA</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2363,15 +2363,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>724849</v>
+        <v>726246</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>MULTIUSO RETRO  PARTE 1</t>
+          <t>AEREO DUPLO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2403,15 +2403,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>724851</v>
+        <v>726247</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>PAINEL HOME CRETA</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2438,20 +2438,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>724852</v>
+        <v>726248</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>BUFFET EVORA 1.6</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2478,20 +2478,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>724856</v>
+        <v>726249</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>BUFFET AURA 1.4</t>
+          <t>RACK RUBI</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2518,20 +2518,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>724860</v>
+        <v>726251</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>AEREO 1.2M SELENE</t>
+          <t>BALCAO 0.8M ALLURE</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2558,20 +2558,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>724861</v>
+        <v>726252</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RACK CRONOS 2.2</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2603,15 +2603,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>724863</v>
+        <v>726253</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M SELENE</t>
+          <t>MUNIQUE ENTERTAINMENT UNIT</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2638,20 +2638,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>724865</v>
+        <v>726254</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+          <t>TORRE SIMPLES 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2678,20 +2678,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>724866</v>
+        <v>720860</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>APARADOR MONACO</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2718,20 +2718,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>724867</v>
+        <v>720861</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PRATELEIRA 1.4</t>
+          <t>MESA DE CENTRO MONACO</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2758,20 +2758,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>724868</v>
+        <v>726256</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PAINEL HOME LUGANO</t>
+          <t>PAINEL HOME ZURIQUE</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2798,20 +2798,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>723271</v>
+        <v>728668</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>RACK GOLD</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2838,20 +2838,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>726236</v>
+        <v>728670</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>AEREO 1.2M ALLURE</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2878,20 +2878,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>726237</v>
+        <v>728672</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PAINEL EXTENSIVEL TUTI</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2918,20 +2918,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>726259</v>
+        <v>728673</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ESTANTE IPANEMA</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2958,20 +2958,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>726238</v>
+        <v>728675</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RACK RECIFE</t>
+          <t>HOME VIENA</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2998,20 +2998,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>726239</v>
+        <v>728677</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
+          <t>AEREO DUPLO 0.8M ALLURE</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3038,20 +3038,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>726240</v>
+        <v>728678</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>HOME NAPOLI</t>
+          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3078,20 +3078,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>726241</v>
+        <v>728680</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>CABECEIRA LARANJEIRAS 2.4</t>
+          <t>RACK AURUM</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3118,20 +3118,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>726242</v>
+        <v>728681</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>RACK SAO FRANCISCO</t>
+          <t>PAINEL SAO PAULO</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3158,20 +3158,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>12/07/2025</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>726243</v>
+        <v>728683</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>BALCAO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3198,20 +3198,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>12/07/2025</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>726244</v>
+        <v>728684</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>RACK NEW BLUMENAU</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3238,20 +3238,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>12/07/2025</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>726245</v>
+        <v>728686</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>RACK ARACATUBA</t>
+          <t>RACK CRONOS 1.8</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3278,20 +3278,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>12/07/2025</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>726246</v>
+        <v>728687</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M SELENE</t>
+          <t>RACK SAO PAULO</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3323,15 +3323,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>726247</v>
+        <v>728689</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PAINEL HOME CRETA</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3363,15 +3363,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>726248</v>
+        <v>728690</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>BUFFET EVORA 1.6</t>
+          <t>RACK DUBAI 1.6</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3403,15 +3403,15 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>726249</v>
+        <v>728691</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>RACK RUBI</t>
+          <t>MODULO LATERAL SAO PAULO</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3443,15 +3443,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>726251</v>
+        <v>728692</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M ALLURE</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3483,15 +3483,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>726252</v>
+        <v>728694</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>RACK AURUM</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3518,20 +3518,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>726254</v>
+        <v>728696</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>TORRE SIMPLES 0.7M ALLURE</t>
+          <t>PAINEL HOME LUGANO</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3563,15 +3563,15 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>720860</v>
+        <v>728697</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>APARADOR MONACO</t>
+          <t>RACK COLORADO</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3603,15 +3603,15 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>720861</v>
+        <v>728698</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO MONACO</t>
+          <t>RACK ORLANDO</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3643,15 +3643,15 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>726256</v>
+        <v>728699</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PAINEL HOME ZURIQUE</t>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3670,6 +3670,126 @@
         </is>
       </c>
       <c r="H81" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>16/07/2025</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>728700</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>PRATELEIRA 1.4</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>BRANCO</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>28/06/2025</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>729124</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>PRATELEIRA CURVA 1.4 VOLUME 1/2</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>BRANCO</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>28/06/2025</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>729125</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>PRATELEIRA CURVA 2.2 VOLUME 1/2</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>N/C</t>
         </is>

--- a/03 - mapa-producao/Outros/Mapa_Copia.xlsx
+++ b/03 - mapa-producao/Outros/Mapa_Copia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,20 +478,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>723263</v>
+        <v>723269</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>AEREO MICROONDAS 0.8M SELENE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -518,20 +518,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>723264</v>
+        <v>719089</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.6</t>
+          <t>NICHO CURVO 1.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -558,20 +558,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>723265</v>
+        <v>719070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CABECEIRA ILHABELA</t>
+          <t>NICHO CURVO 2.2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -603,15 +603,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>723266</v>
+        <v>723270</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>HOME VIENA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -643,15 +643,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>723267</v>
+        <v>724841</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PAINEL SANTORINI</t>
+          <t>MESA DE TV AURUM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -678,20 +678,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>25/06/2025</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>720859</v>
+        <v>724862</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BUFFET RETRO 1.4 PARTE 1</t>
+          <t>RACK GOLD</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -718,20 +718,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>723189</v>
+        <v>724843</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HOME MUNIQUE</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -763,15 +763,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>723268</v>
+        <v>726241</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.65M SELENE</t>
+          <t>CABECEIRA LARANJEIRAS 2.4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -798,20 +798,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>723269</v>
+        <v>728688</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AEREO MICROONDAS 0.8M SELENE</t>
+          <t>MESA DE CABECEIRA BUZIOS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -843,15 +843,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>719089</v>
+        <v>724846</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NICHO CURVO 1.4</t>
+          <t>PAINEL HOME FRIBURGO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -883,15 +883,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>719070</v>
+        <v>724847</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NICHO CURVO 2.2</t>
+          <t>PAINEL HOME MARAGOGI</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -918,20 +918,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>723270</v>
+        <v>724844</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>TORRE QUENTE 0.65M SELENE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -958,20 +958,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>724841</v>
+        <v>724842</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MESA DE TV AURUM</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -998,20 +998,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>724862</v>
+        <v>724848</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RACK GOLD</t>
+          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1038,20 +1038,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>724843</v>
+        <v>719091</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>PRATELEIRA CURVA 2.2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1078,20 +1078,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>726241</v>
+        <v>719082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CABECEIRA LARANJEIRAS 2.4</t>
+          <t>PRATELEIRA CURVA 1.4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1123,15 +1123,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>728688</v>
+        <v>720857</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MESA DE CABECEIRA BUZIOS</t>
+          <t>PRATELEIRA 2.2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1158,20 +1158,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>724844</v>
+        <v>724849</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TORRE QUENTE 0.65M SELENE</t>
+          <t>MULTIUSO RETRO  PARTE 1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1198,20 +1198,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>724846</v>
+        <v>724851</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PAINEL HOME FRIBURGO</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1238,20 +1238,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>724847</v>
+        <v>724852</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PAINEL HOME MARAGOGI</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1278,20 +1278,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>724842</v>
+        <v>724856</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>BUFFET AURA 1.4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1318,20 +1318,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>724848</v>
+        <v>724860</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
+          <t>AEREO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1358,20 +1358,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>719091</v>
+        <v>724861</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 2.2</t>
+          <t>RACK CRONOS 2.2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1398,20 +1398,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>719082</v>
+        <v>724863</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 1.4</t>
+          <t>BALCAO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1438,20 +1438,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>720857</v>
+        <v>724865</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PRATELEIRA 2.2</t>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1483,15 +1483,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>724849</v>
+        <v>724866</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MULTIUSO RETRO  PARTE 1</t>
+          <t>PAINEL HOME HAVANA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1518,20 +1518,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>724851</v>
+        <v>724868</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>PAINEL HOME LUGANO</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1558,20 +1558,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>724852</v>
+        <v>723271</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1598,20 +1598,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>724856</v>
+        <v>726236</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>BUFFET AURA 1.4</t>
+          <t>AEREO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1638,20 +1638,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>724860</v>
+        <v>726237</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AEREO 1.2M SELENE</t>
+          <t>PAINEL EXTENSIVEL TUTI</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1678,20 +1678,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>724861</v>
+        <v>726259</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RACK CRONOS 2.2</t>
+          <t>ESTANTE IPANEMA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1723,15 +1723,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>724863</v>
+        <v>726238</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M SELENE</t>
+          <t>RACK RECIFE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1758,20 +1758,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>724865</v>
+        <v>726239</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1798,20 +1798,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>724866</v>
+        <v>726240</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>HOME NAPOLI</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1843,15 +1843,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>724867</v>
+        <v>726242</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PRATELEIRA 1.4</t>
+          <t>RACK SAO FRANCISCO</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1878,20 +1878,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>724868</v>
+        <v>726243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PAINEL HOME LUGANO</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1918,20 +1918,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>723271</v>
+        <v>726244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>RACK NEW BLUMENAU</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1958,20 +1958,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>726236</v>
+        <v>726245</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>AEREO 1.2M ALLURE</t>
+          <t>RACK ARACATUBA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1998,20 +1998,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>726237</v>
+        <v>726246</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PAINEL EXTENSIVEL TUTI</t>
+          <t>AEREO DUPLO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2038,20 +2038,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>726259</v>
+        <v>726247</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ESTANTE IPANEMA</t>
+          <t>PAINEL HOME CRETA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2078,20 +2078,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>726238</v>
+        <v>724867</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RACK RECIFE</t>
+          <t>PRATELEIRA 1.4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2118,20 +2118,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>726239</v>
+        <v>726248</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
+          <t>BUFFET EVORA 1.6</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2163,15 +2163,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>726240</v>
+        <v>726249</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HOME NAPOLI</t>
+          <t>RACK RUBI</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2198,20 +2198,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>726242</v>
+        <v>726251</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>RACK SAO FRANCISCO</t>
+          <t>BALCAO 0.8M ALLURE</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2238,20 +2238,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>726243</v>
+        <v>726252</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2283,15 +2283,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>726244</v>
+        <v>726253</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>RACK NEW BLUMENAU</t>
+          <t>MUNIQUE ENTERTAINMENT UNIT</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2318,20 +2318,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>726245</v>
+        <v>726254</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RACK ARACATUBA</t>
+          <t>TORRE SIMPLES 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2358,20 +2358,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>726246</v>
+        <v>720860</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M SELENE</t>
+          <t>APARADOR MONACO</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2398,20 +2398,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>726247</v>
+        <v>720861</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PAINEL HOME CRETA</t>
+          <t>MESA DE CENTRO MONACO</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2438,20 +2438,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>726248</v>
+        <v>726256</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>BUFFET EVORA 1.6</t>
+          <t>PAINEL HOME ZURIQUE</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2478,20 +2478,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>726249</v>
+        <v>728668</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RACK RUBI</t>
+          <t>RACK GOLD</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2518,20 +2518,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>726251</v>
+        <v>728670</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M ALLURE</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2558,20 +2558,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>726252</v>
+        <v>728672</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2598,20 +2598,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>726253</v>
+        <v>728673</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>MUNIQUE ENTERTAINMENT UNIT</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2638,20 +2638,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>726254</v>
+        <v>728675</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TORRE SIMPLES 0.7M ALLURE</t>
+          <t>HOME VIENA</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2678,20 +2678,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>720860</v>
+        <v>728677</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>APARADOR MONACO</t>
+          <t>AEREO DUPLO 0.8M ALLURE</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2718,20 +2718,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>720861</v>
+        <v>728678</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO MONACO</t>
+          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2758,20 +2758,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>726256</v>
+        <v>728680</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PAINEL HOME ZURIQUE</t>
+          <t>RACK AURUM</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2798,20 +2798,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>728668</v>
+        <v>728681</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>RACK GOLD</t>
+          <t>PAINEL SAO PAULO</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2838,20 +2838,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>12/07/2025</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>728670</v>
+        <v>728683</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>BALCAO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2883,15 +2883,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>12/07/2025</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>728672</v>
+        <v>728684</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2918,20 +2918,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>12/07/2025</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>728673</v>
+        <v>728686</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>RACK CRONOS 1.8</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2958,20 +2958,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>12/07/2025</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>728675</v>
+        <v>728687</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>RACK SAO PAULO</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2998,20 +2998,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>728677</v>
+        <v>728689</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M ALLURE</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3038,20 +3038,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>728678</v>
+        <v>728690</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
+          <t>RACK DUBAI 1.6</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3083,15 +3083,15 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>728680</v>
+        <v>728691</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>RACK AURUM</t>
+          <t>MODULO LATERAL SAO PAULO</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3123,15 +3123,15 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>728681</v>
+        <v>728692</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PAINEL SAO PAULO</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3163,15 +3163,15 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>728683</v>
+        <v>728694</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>BALCAO 1.2M ALLURE</t>
+          <t>RACK AURUM</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3198,20 +3198,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>728684</v>
+        <v>728696</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>PAINEL HOME LUGANO</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3238,20 +3238,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>728686</v>
+        <v>728697</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>RACK CRONOS 1.8</t>
+          <t>RACK COLORADO</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3278,20 +3278,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>728687</v>
+        <v>728698</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>RACK SAO PAULO</t>
+          <t>RACK ORLANDO</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3323,15 +3323,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>728689</v>
+        <v>728699</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3363,15 +3363,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>728690</v>
+        <v>728700</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.6</t>
+          <t>PRATELEIRA 1.4</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3398,20 +3398,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>728691</v>
+        <v>729124</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>MODULO LATERAL SAO PAULO</t>
+          <t>PRATELEIRA CURVA 1.4 VOLUME 1/2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3438,20 +3438,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>728692</v>
+        <v>729125</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>PRATELEIRA CURVA 2.2 VOLUME 1/2</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3470,326 +3470,6 @@
         </is>
       </c>
       <c r="H76" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>15/07/2025</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>728694</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>RACK AURUM</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>15/07/2025</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>728696</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>PAINEL HOME LUGANO</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>15/07/2025</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>728697</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>RACK COLORADO</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>16/07/2025</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>728698</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>RACK ORLANDO</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>16/07/2025</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>728699</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>16/07/2025</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>728700</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>PRATELEIRA 1.4</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>28/06/2025</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>729124</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>PRATELEIRA CURVA 1.4 VOLUME 1/2</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>28/06/2025</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>729125</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>PRATELEIRA CURVA 2.2 VOLUME 1/2</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
         <is>
           <t>N/C</t>
         </is>

--- a/03 - mapa-producao/Outros/Mapa_Copia.xlsx
+++ b/03 - mapa-producao/Outros/Mapa_Copia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,20 +478,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>723269</v>
+        <v>724843</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AEREO MICROONDAS 0.8M SELENE</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -518,20 +518,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>719089</v>
+        <v>726241</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NICHO CURVO 1.4</t>
+          <t>CABECEIRA LARANJEIRAS 2.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -558,20 +558,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>719070</v>
+        <v>728688</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NICHO CURVO 2.2</t>
+          <t>MESA DE CABECEIRA BUZIOS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -603,15 +603,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>723270</v>
+        <v>724846</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>PAINEL HOME FRIBURGO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -643,15 +643,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>724841</v>
+        <v>724847</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MESA DE TV AURUM</t>
+          <t>PAINEL HOME MARAGOGI</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -683,15 +683,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>724862</v>
+        <v>724844</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RACK GOLD</t>
+          <t>TORRE QUENTE 0.65M SELENE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -718,20 +718,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>27/06/2025</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>724843</v>
+        <v>724842</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -758,20 +758,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>726241</v>
+        <v>724848</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CABECEIRA LARANJEIRAS 2.4</t>
+          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -798,20 +798,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>728688</v>
+        <v>719091</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MESA DE CABECEIRA BUZIOS</t>
+          <t>PRATELEIRA CURVA 2.2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -838,20 +838,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>724846</v>
+        <v>719082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PAINEL HOME FRIBURGO</t>
+          <t>PRATELEIRA CURVA 1.4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -878,20 +878,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>724847</v>
+        <v>720857</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PAINEL HOME MARAGOGI</t>
+          <t>PRATELEIRA 2.2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -918,20 +918,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>724844</v>
+        <v>724849</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TORRE QUENTE 0.65M SELENE</t>
+          <t>MULTIUSO RETRO  PARTE 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -958,20 +958,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>724842</v>
+        <v>724851</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1003,15 +1003,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>724848</v>
+        <v>724852</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1038,20 +1038,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>719091</v>
+        <v>724856</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 2.2</t>
+          <t>BUFFET AURA 1.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1078,20 +1078,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>719082</v>
+        <v>724860</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 1.4</t>
+          <t>AEREO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1123,15 +1123,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>720857</v>
+        <v>724861</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PRATELEIRA 2.2</t>
+          <t>RACK CRONOS 2.2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1158,20 +1158,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>724849</v>
+        <v>724863</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MULTIUSO RETRO  PARTE 1</t>
+          <t>BALCAO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1198,20 +1198,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>724851</v>
+        <v>724865</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1238,20 +1238,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>724852</v>
+        <v>724866</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>PAINEL HOME HAVANA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1283,15 +1283,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>724856</v>
+        <v>724868</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>BUFFET AURA 1.4</t>
+          <t>PAINEL HOME LUGANO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1323,15 +1323,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>724860</v>
+        <v>723271</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AEREO 1.2M SELENE</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1363,15 +1363,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>724861</v>
+        <v>726236</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RACK CRONOS 2.2</t>
+          <t>AEREO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1398,20 +1398,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>724863</v>
+        <v>726237</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M SELENE</t>
+          <t>PAINEL EXTENSIVEL TUTI</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1438,20 +1438,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>724865</v>
+        <v>726259</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+          <t>ESTANTE IPANEMA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1478,20 +1478,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>724866</v>
+        <v>726238</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>RACK RECIFE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1518,20 +1518,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>724868</v>
+        <v>726239</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PAINEL HOME LUGANO</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1563,15 +1563,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>723271</v>
+        <v>726240</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>HOME NAPOLI</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1598,20 +1598,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>726236</v>
+        <v>726242</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>AEREO 1.2M ALLURE</t>
+          <t>RACK SAO FRANCISCO</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1638,20 +1638,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>726237</v>
+        <v>726243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PAINEL EXTENSIVEL TUTI</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1683,15 +1683,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>726259</v>
+        <v>726244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ESTANTE IPANEMA</t>
+          <t>RACK NEW BLUMENAU</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1718,20 +1718,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>726238</v>
+        <v>726245</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RACK RECIFE</t>
+          <t>RACK ARACATUBA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1758,20 +1758,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>726239</v>
+        <v>726246</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
+          <t>AEREO DUPLO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1798,20 +1798,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>726240</v>
+        <v>726247</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HOME NAPOLI</t>
+          <t>PAINEL HOME CRETA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1843,15 +1843,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>726242</v>
+        <v>724867</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RACK SAO FRANCISCO</t>
+          <t>PRATELEIRA 1.4</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1878,20 +1878,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>726243</v>
+        <v>726248</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>BUFFET EVORA 1.6</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1918,20 +1918,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>726244</v>
+        <v>726249</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RACK NEW BLUMENAU</t>
+          <t>RACK RUBI</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1958,20 +1958,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>726245</v>
+        <v>726251</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RACK ARACATUBA</t>
+          <t>BALCAO 0.8M ALLURE</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1998,20 +1998,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>726246</v>
+        <v>726252</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M SELENE</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2038,20 +2038,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>726247</v>
+        <v>726253</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PAINEL HOME CRETA</t>
+          <t>MUNIQUE ENTERTAINMENT UNIT</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2078,20 +2078,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>724867</v>
+        <v>726254</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PRATELEIRA 1.4</t>
+          <t>TORRE SIMPLES 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2118,20 +2118,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>726248</v>
+        <v>720860</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>BUFFET EVORA 1.6</t>
+          <t>APARADOR MONACO</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2158,20 +2158,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>726249</v>
+        <v>720861</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>RACK RUBI</t>
+          <t>MESA DE CENTRO MONACO</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2198,20 +2198,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>726251</v>
+        <v>726256</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M ALLURE</t>
+          <t>PAINEL HOME ZURIQUE</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2238,20 +2238,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>726252</v>
+        <v>728668</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>RACK GOLD</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2278,20 +2278,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>726253</v>
+        <v>728670</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>MUNIQUE ENTERTAINMENT UNIT</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2318,20 +2318,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>726254</v>
+        <v>728672</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>TORRE SIMPLES 0.7M ALLURE</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2358,20 +2358,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>720860</v>
+        <v>730674</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>APARADOR MONACO</t>
+          <t>BALCAO CANTO 0.9M ALLURE</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2398,20 +2398,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>720861</v>
+        <v>730676</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO MONACO</t>
+          <t>AEREO CANTO 3 PORTAS 0.9M ALLURE</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2438,20 +2438,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>726256</v>
+        <v>730677</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PAINEL HOME ZURIQUE</t>
+          <t>BALCAO 0.4M ALLURE</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2478,20 +2478,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>728668</v>
+        <v>730680</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RACK GOLD</t>
+          <t>AEREO SIMPLES 0.4M ALLURE</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2518,20 +2518,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>728670</v>
+        <v>728673</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2558,7 +2558,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2567,11 +2567,11 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>728672</v>
+        <v>728675</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>HOME VIENA</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2598,20 +2598,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>728673</v>
+        <v>728677</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>AEREO DUPLO 0.8M ALLURE</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2638,20 +2638,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>728675</v>
+        <v>728678</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2678,7 +2678,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2687,11 +2687,11 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>728677</v>
+        <v>728680</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M ALLURE</t>
+          <t>RACK AURUM</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2718,7 +2718,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2727,11 +2727,11 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>728678</v>
+        <v>728681</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
+          <t>PAINEL SAO PAULO</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2758,20 +2758,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>12/07/2025</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>728680</v>
+        <v>728683</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RACK AURUM</t>
+          <t>BALCAO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2798,20 +2798,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>12/07/2025</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>728681</v>
+        <v>728684</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PAINEL SAO PAULO</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2838,7 +2838,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2847,11 +2847,11 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>728683</v>
+        <v>728686</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>BALCAO 1.2M ALLURE</t>
+          <t>RACK CRONOS 1.8</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2878,7 +2878,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2887,11 +2887,11 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>728684</v>
+        <v>728687</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>RACK SAO PAULO</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2918,20 +2918,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>728686</v>
+        <v>728689</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RACK CRONOS 1.8</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2958,20 +2958,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>728687</v>
+        <v>728690</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RACK SAO PAULO</t>
+          <t>RACK DUBAI 1.6</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2998,7 +2998,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3007,11 +3007,11 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>728689</v>
+        <v>728691</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>MODULO LATERAL SAO PAULO</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3038,7 +3038,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3047,11 +3047,11 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>728690</v>
+        <v>728692</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.6</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3078,20 +3078,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>728691</v>
+        <v>728694</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>MODULO LATERAL SAO PAULO</t>
+          <t>RACK AURUM</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3118,20 +3118,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>728692</v>
+        <v>728696</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>PAINEL HOME LUGANO</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3158,7 +3158,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3167,11 +3167,11 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>728694</v>
+        <v>728697</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>RACK AURUM</t>
+          <t>RACK COLORADO</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3198,20 +3198,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>15/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>728696</v>
+        <v>728698</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PAINEL HOME LUGANO</t>
+          <t>RACK ORLANDO</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3238,20 +3238,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>15/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>728697</v>
+        <v>728699</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>RACK COLORADO</t>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3278,7 +3278,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3287,11 +3287,11 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>728698</v>
+        <v>728700</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>RACK ORLANDO</t>
+          <t>PRATELEIRA 1.4</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3318,20 +3318,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16/07/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>728699</v>
+        <v>729124</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+          <t>PRATELEIRA CURVA 1.4 VOLUME 1/2</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3358,20 +3358,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16/07/2025</t>
+          <t>28/06/2025</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>728700</v>
+        <v>729125</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PRATELEIRA 1.4</t>
+          <t>PRATELEIRA CURVA 2.2 VOLUME 1/2</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3390,86 +3390,6 @@
         </is>
       </c>
       <c r="H74" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>28/06/2025</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>729124</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>PRATELEIRA CURVA 1.4 VOLUME 1/2</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>28/06/2025</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>729125</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>PRATELEIRA CURVA 2.2 VOLUME 1/2</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
         <is>
           <t>N/C</t>
         </is>

--- a/03 - mapa-producao/Outros/Mapa_Copia.xlsx
+++ b/03 - mapa-producao/Outros/Mapa_Copia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,15 +483,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>724843</v>
+        <v>724852</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -518,20 +518,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>726241</v>
+        <v>724856</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CABECEIRA LARANJEIRAS 2.4</t>
+          <t>BUFFET AURA 1.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -558,20 +558,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>728688</v>
+        <v>724860</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MESA DE CABECEIRA BUZIOS</t>
+          <t>AEREO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -598,20 +598,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>724846</v>
+        <v>724861</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PAINEL HOME FRIBURGO</t>
+          <t>RACK CRONOS 2.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -638,20 +638,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>724847</v>
+        <v>724863</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PAINEL HOME MARAGOGI</t>
+          <t>BALCAO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -678,20 +678,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>724844</v>
+        <v>724865</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TORRE QUENTE 0.65M SELENE</t>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -718,20 +718,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27/06/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>724842</v>
+        <v>724868</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>PAINEL HOME LUGANO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -758,20 +758,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>724848</v>
+        <v>724866</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
+          <t>PAINEL HOME HAVANA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -798,20 +798,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>719091</v>
+        <v>723271</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 2.2</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -838,20 +838,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>719082</v>
+        <v>726236</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 1.4</t>
+          <t>AEREO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -878,20 +878,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>720857</v>
+        <v>726237</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PRATELEIRA 2.2</t>
+          <t>PAINEL EXTENSIVEL TUTI</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -918,20 +918,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>724849</v>
+        <v>726259</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MULTIUSO RETRO  PARTE 1</t>
+          <t>ESTANTE IPANEMA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -958,20 +958,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>724851</v>
+        <v>726238</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>RACK RECIFE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1003,15 +1003,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>724852</v>
+        <v>726239</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1038,20 +1038,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>724856</v>
+        <v>726240</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>BUFFET AURA 1.4</t>
+          <t>HOME NAPOLI</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1078,20 +1078,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>30/06/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>724860</v>
+        <v>726242</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AEREO 1.2M SELENE</t>
+          <t>RACK SAO FRANCISCO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1118,20 +1118,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>724861</v>
+        <v>726243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RACK CRONOS 2.2</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1163,15 +1163,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>724863</v>
+        <v>726244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M SELENE</t>
+          <t>RACK NEW BLUMENAU</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1203,15 +1203,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>724865</v>
+        <v>726245</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+          <t>RACK ARACATUBA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1243,15 +1243,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>724866</v>
+        <v>726246</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>AEREO DUPLO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1278,20 +1278,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>724868</v>
+        <v>726247</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PAINEL HOME LUGANO</t>
+          <t>PAINEL HOME CRETA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1318,20 +1318,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>723271</v>
+        <v>724867</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>PRATELEIRA 1.4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1358,20 +1358,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>726236</v>
+        <v>726248</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AEREO 1.2M ALLURE</t>
+          <t>BUFFET EVORA 1.6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1398,20 +1398,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>726237</v>
+        <v>726249</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PAINEL EXTENSIVEL TUTI</t>
+          <t>RACK RUBI</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1438,20 +1438,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>726259</v>
+        <v>726251</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ESTANTE IPANEMA</t>
+          <t>BALCAO 0.8M ALLURE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1478,20 +1478,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>726238</v>
+        <v>726252</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RACK RECIFE</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1518,20 +1518,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>726239</v>
+        <v>726253</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
+          <t>MUNIQUE ENTERTAINMENT UNIT</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1558,20 +1558,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>726240</v>
+        <v>726254</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HOME NAPOLI</t>
+          <t>TORRE SIMPLES 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1598,20 +1598,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>726242</v>
+        <v>720860</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RACK SAO FRANCISCO</t>
+          <t>APARADOR MONACO</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1638,20 +1638,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>726243</v>
+        <v>720861</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>MESA DE CENTRO MONACO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1678,20 +1678,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>726244</v>
+        <v>726256</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RACK NEW BLUMENAU</t>
+          <t>PAINEL HOME ZURIQUE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1718,20 +1718,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>726245</v>
+        <v>728668</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RACK ARACATUBA</t>
+          <t>RACK GOLD</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1758,20 +1758,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>726246</v>
+        <v>730674</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M SELENE</t>
+          <t>BALCAO CANTO 0.9M ALLURE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1798,20 +1798,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>726247</v>
+        <v>730676</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PAINEL HOME CRETA</t>
+          <t>AEREO CANTO 3 PORTAS 0.9M ALLURE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1838,20 +1838,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>724867</v>
+        <v>730677</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PRATELEIRA 1.4</t>
+          <t>BALCAO 0.4M ALLURE</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1878,20 +1878,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>726248</v>
+        <v>730680</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>BUFFET EVORA 1.6</t>
+          <t>AEREO SIMPLES 0.4M ALLURE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1923,15 +1923,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>726249</v>
+        <v>728670</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RACK RUBI</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1958,20 +1958,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>726251</v>
+        <v>728672</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M ALLURE</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1998,20 +1998,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>726252</v>
+        <v>728673</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2038,20 +2038,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>726253</v>
+        <v>728675</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>MUNIQUE ENTERTAINMENT UNIT</t>
+          <t>HOME VIENA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2078,20 +2078,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>726254</v>
+        <v>728677</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>TORRE SIMPLES 0.7M ALLURE</t>
+          <t>AEREO DUPLO 0.8M ALLURE</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2118,20 +2118,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>720860</v>
+        <v>728678</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>APARADOR MONACO</t>
+          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2158,20 +2158,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>12/07/2025</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>720861</v>
+        <v>728680</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO MONACO</t>
+          <t>RACK AURUM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2198,20 +2198,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>12/07/2025</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>726256</v>
+        <v>728681</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PAINEL HOME ZURIQUE</t>
+          <t>PAINEL SAO PAULO</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2238,20 +2238,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>728668</v>
+        <v>728683</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>RACK GOLD</t>
+          <t>BALCAO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2278,20 +2278,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>728670</v>
+        <v>728684</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2318,20 +2318,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>728672</v>
+        <v>728686</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>RACK CRONOS 1.8</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2358,20 +2358,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>730674</v>
+        <v>728687</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>BALCAO CANTO 0.9M ALLURE</t>
+          <t>RACK SAO PAULO</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2398,20 +2398,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>730676</v>
+        <v>728689</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>AEREO CANTO 3 PORTAS 0.9M ALLURE</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2438,20 +2438,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>730677</v>
+        <v>728690</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>BALCAO 0.4M ALLURE</t>
+          <t>RACK DUBAI 1.6</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2478,20 +2478,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>730680</v>
+        <v>728691</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>AEREO SIMPLES 0.4M ALLURE</t>
+          <t>MODULO LATERAL SAO PAULO</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2523,15 +2523,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>728673</v>
+        <v>728692</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2563,15 +2563,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>728675</v>
+        <v>728694</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>RACK AURUM</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2603,15 +2603,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>728677</v>
+        <v>728696</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M ALLURE</t>
+          <t>PAINEL HOME LUGANO</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2638,20 +2638,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>728678</v>
+        <v>728697</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
+          <t>RACK COLORADO</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2678,20 +2678,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>728680</v>
+        <v>728698</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RACK AURUM</t>
+          <t>RACK ORLANDO</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2718,20 +2718,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>728681</v>
+        <v>728699</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PAINEL SAO PAULO</t>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2758,20 +2758,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>17/07/2025</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>728683</v>
+        <v>728700</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>BALCAO 1.2M ALLURE</t>
+          <t>PRATELEIRA 1.4</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2798,20 +2798,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>17/07/2025</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>728684</v>
+        <v>731306</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>HOME SALVADOR</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2838,20 +2838,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>17/07/2025</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>728686</v>
+        <v>731308</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RACK CRONOS 1.8</t>
+          <t>AEREO SIMPLES 0.8M ALLURE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2878,20 +2878,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>17/07/2025</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>728687</v>
+        <v>731310</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RACK SAO PAULO</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2923,15 +2923,15 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>17/07/2025</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>728689</v>
+        <v>731312</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>BALCAO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2963,15 +2963,15 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>18/07/2025</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>728690</v>
+        <v>731315</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.6</t>
+          <t>ESTANTE CANELA</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3003,15 +3003,15 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>18/07/2025</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>728691</v>
+        <v>731317</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>MODULO LATERAL SAO PAULO</t>
+          <t>RACK SAO FRANCISCO</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3038,20 +3038,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>18/07/2025</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>728692</v>
+        <v>731318</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3078,20 +3078,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>15/07/2025</t>
+          <t>21/07/2025</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>728694</v>
+        <v>731320</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>RACK AURUM</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3118,20 +3118,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>15/07/2025</t>
+          <t>21/07/2025</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>728696</v>
+        <v>731322</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PAINEL HOME LUGANO</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3158,20 +3158,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>15/07/2025</t>
+          <t>22/07/2025</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>728697</v>
+        <v>731323</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>RACK COLORADO</t>
+          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3198,20 +3198,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16/07/2025</t>
+          <t>22/07/2025</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>728698</v>
+        <v>731324</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>RACK ORLANDO</t>
+          <t>TAMPO BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3238,20 +3238,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16/07/2025</t>
+          <t>22/07/2025</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>728699</v>
+        <v>731326</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3278,20 +3278,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16/07/2025</t>
+          <t>22/07/2025</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>728700</v>
+        <v>731327</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PRATELEIRA 1.4</t>
+          <t>CABECEIRA LARANJEIRAS 2.4</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3318,20 +3318,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>22/07/2025</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>729124</v>
+        <v>731328</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 1.4 VOLUME 1/2</t>
+          <t>HOME MUNIQUE</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3358,38 +3358,758 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>22/07/2025</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>731330</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>MESA DE CABECEIRA BUZIOS</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t>BRANCO</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>28/06/2025</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>729125</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>PRATELEIRA CURVA 2.2 VOLUME 1/2</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>23/07/2025</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>731347</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>PAR FRAME PARA CABECEIRA 217X140X60</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>23/07/2025</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>731333</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>PAINEL OURO PRETO</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>23/07/2025</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>731336</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>RACK RUBI</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>23/07/2025</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>731338</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>RACK OURO PRETO</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>23/07/2025</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>731339</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>731332</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>TORRE QUENTE 0.7M ALLURE</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>731340</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>731341</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>MODULO RIPADO 0.4</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>731343</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>TORRE SIMPLES 0.7M ALLURE</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>731344</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>RACK ISTAMBUL</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>731345</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>MESA DE CABECEIRA BUZIOS</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>731346</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>BALCAO 1.2M SELENE</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>731348</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>26/07/2025</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>731353</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>NICHO CURVO 1.4</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>26/07/2025</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>731355</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>NICHO CURVO 2.2</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>BRANCO</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>732118</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>KIT PDV COZINHA ATENA</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>BRANCO</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>732122</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>KIT PDV COZINHA ALLURE</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>BRANCO</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>25/07/2025</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>732125</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>KIT PDV COZINHA SELENE</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
         <is>
           <t>N/C</t>
         </is>

--- a/03 - mapa-producao/Outros/Mapa_Copia.xlsx
+++ b/03 - mapa-producao/Outros/Mapa_Copia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,20 +478,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>724852</v>
+        <v>726259</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>ESTANTE IPANEMA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -523,15 +523,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>724856</v>
+        <v>726238</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BUFFET AURA 1.4</t>
+          <t>RACK RECIFE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -558,20 +558,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>724860</v>
+        <v>726239</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AEREO 1.2M SELENE</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -598,20 +598,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>724861</v>
+        <v>726240</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RACK CRONOS 2.2</t>
+          <t>HOME NAPOLI</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -638,20 +638,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>724863</v>
+        <v>726242</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M SELENE</t>
+          <t>RACK SAO FRANCISCO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -678,20 +678,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>724865</v>
+        <v>726243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -723,15 +723,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>724868</v>
+        <v>726244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PAINEL HOME LUGANO</t>
+          <t>RACK NEW BLUMENAU</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -758,20 +758,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>724866</v>
+        <v>726245</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>RACK ARACATUBA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -798,20 +798,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>723271</v>
+        <v>726246</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>AEREO DUPLO 0.8M SELENE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -838,20 +838,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>726236</v>
+        <v>726247</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AEREO 1.2M ALLURE</t>
+          <t>PAINEL HOME CRETA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -883,15 +883,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>726237</v>
+        <v>724867</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PAINEL EXTENSIVEL TUTI</t>
+          <t>PRATELEIRA 1.4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -923,15 +923,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>726259</v>
+        <v>726248</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ESTANTE IPANEMA</t>
+          <t>BUFFET EVORA 1.6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -958,20 +958,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>726238</v>
+        <v>726249</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RACK RECIFE</t>
+          <t>RACK RUBI</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -998,20 +998,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>726239</v>
+        <v>726251</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
+          <t>BALCAO 0.8M ALLURE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1038,20 +1038,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>726240</v>
+        <v>726252</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HOME NAPOLI</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1078,20 +1078,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>726242</v>
+        <v>726253</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RACK SAO FRANCISCO</t>
+          <t>MUNIQUE ENTERTAINMENT UNIT</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1118,20 +1118,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>726243</v>
+        <v>726254</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>TORRE SIMPLES 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1158,20 +1158,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>726244</v>
+        <v>720860</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RACK NEW BLUMENAU</t>
+          <t>APARADOR MONACO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1198,20 +1198,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>726245</v>
+        <v>720861</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RACK ARACATUBA</t>
+          <t>MESA DE CENTRO MONACO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1238,20 +1238,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>726246</v>
+        <v>726256</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M SELENE</t>
+          <t>PAINEL HOME ZURIQUE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1278,20 +1278,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>726247</v>
+        <v>728668</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PAINEL HOME CRETA</t>
+          <t>RACK GOLD</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1318,20 +1318,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>724867</v>
+        <v>730674</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PRATELEIRA 1.4</t>
+          <t>BALCAO CANTO 0.9M ALLURE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1358,20 +1358,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>726248</v>
+        <v>730676</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>BUFFET EVORA 1.6</t>
+          <t>AEREO CANTO 3 PORTAS 0.9M ALLURE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1398,20 +1398,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>726249</v>
+        <v>730677</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RACK RUBI</t>
+          <t>BALCAO 0.4M ALLURE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1438,20 +1438,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>726251</v>
+        <v>730680</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M ALLURE</t>
+          <t>AEREO SIMPLES 0.4M ALLURE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1478,20 +1478,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>726252</v>
+        <v>728670</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1518,20 +1518,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>726253</v>
+        <v>728672</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MUNIQUE ENTERTAINMENT UNIT</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1563,15 +1563,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>726254</v>
+        <v>728673</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TORRE SIMPLES 0.7M ALLURE</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1598,20 +1598,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>720860</v>
+        <v>728675</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>APARADOR MONACO</t>
+          <t>HOME VIENA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1638,20 +1638,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>720861</v>
+        <v>728677</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO MONACO</t>
+          <t>AEREO DUPLO 0.8M ALLURE</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1678,20 +1678,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>726256</v>
+        <v>728678</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PAINEL HOME ZURIQUE</t>
+          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1718,20 +1718,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>12/07/2025</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>728668</v>
+        <v>728680</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RACK GOLD</t>
+          <t>RACK AURUM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1758,20 +1758,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>12/07/2025</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>730674</v>
+        <v>728681</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>BALCAO CANTO 0.9M ALLURE</t>
+          <t>PAINEL SAO PAULO</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1798,20 +1798,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>730676</v>
+        <v>728683</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>AEREO CANTO 3 PORTAS 0.9M ALLURE</t>
+          <t>BALCAO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1843,15 +1843,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>730677</v>
+        <v>728684</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>BALCAO 0.4M ALLURE</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1878,20 +1878,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>730680</v>
+        <v>728686</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>AEREO SIMPLES 0.4M ALLURE</t>
+          <t>RACK CRONOS 1.8</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1923,15 +1923,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>728670</v>
+        <v>728687</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>RACK SAO PAULO</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1958,20 +1958,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>728672</v>
+        <v>728689</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1998,20 +1998,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>728673</v>
+        <v>728690</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>RACK DUBAI 1.6</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2038,20 +2038,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>728675</v>
+        <v>728691</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>MODULO LATERAL SAO PAULO</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2078,20 +2078,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>728677</v>
+        <v>728692</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M ALLURE</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2118,20 +2118,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>728678</v>
+        <v>728694</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
+          <t>RACK AURUM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2158,20 +2158,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>728680</v>
+        <v>728696</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>RACK AURUM</t>
+          <t>PAINEL HOME LUGANO</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2198,20 +2198,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>728681</v>
+        <v>728697</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PAINEL SAO PAULO</t>
+          <t>RACK COLORADO</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2238,20 +2238,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>728683</v>
+        <v>728698</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>BALCAO 1.2M ALLURE</t>
+          <t>RACK ORLANDO</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2278,20 +2278,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>728684</v>
+        <v>728699</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2323,15 +2323,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>17/07/2025</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>728686</v>
+        <v>728700</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RACK CRONOS 1.8</t>
+          <t>PRATELEIRA 1.4</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2363,15 +2363,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>17/07/2025</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>728687</v>
+        <v>731306</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RACK SAO PAULO</t>
+          <t>HOME SALVADOR</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2398,20 +2398,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>17/07/2025</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>728689</v>
+        <v>731308</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>AEREO SIMPLES 0.8M ALLURE</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2438,20 +2438,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>15/07/2025</t>
+          <t>17/07/2025</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>728690</v>
+        <v>731310</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.6</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2478,20 +2478,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>15/07/2025</t>
+          <t>17/07/2025</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>728691</v>
+        <v>731312</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>MODULO LATERAL SAO PAULO</t>
+          <t>BALCAO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2518,20 +2518,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>15/07/2025</t>
+          <t>18/07/2025</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>728692</v>
+        <v>731315</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>ESTANTE CANELA</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2558,20 +2558,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>15/07/2025</t>
+          <t>18/07/2025</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>728694</v>
+        <v>731317</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RACK AURUM</t>
+          <t>RACK SAO FRANCISCO</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2598,20 +2598,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16/07/2025</t>
+          <t>18/07/2025</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>728696</v>
+        <v>731318</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PAINEL HOME LUGANO</t>
+          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2638,20 +2638,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16/07/2025</t>
+          <t>21/07/2025</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>728697</v>
+        <v>731320</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>RACK COLORADO</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2678,20 +2678,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16/07/2025</t>
+          <t>21/07/2025</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>728698</v>
+        <v>731322</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RACK ORLANDO</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2718,20 +2718,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16/07/2025</t>
+          <t>22/07/2025</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>728699</v>
+        <v>731323</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2758,20 +2758,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>17/07/2025</t>
+          <t>22/07/2025</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>728700</v>
+        <v>731324</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PRATELEIRA 1.4</t>
+          <t>TAMPO BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2798,20 +2798,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>17/07/2025</t>
+          <t>22/07/2025</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>731306</v>
+        <v>731326</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>HOME SALVADOR</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2843,15 +2843,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>17/07/2025</t>
+          <t>22/07/2025</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>731308</v>
+        <v>731327</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>AEREO SIMPLES 0.8M ALLURE</t>
+          <t>CABECEIRA LARANJEIRAS 2.4</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2878,20 +2878,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>17/07/2025</t>
+          <t>22/07/2025</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>731310</v>
+        <v>731328</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>HOME MUNIQUE</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2918,20 +2918,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>17/07/2025</t>
+          <t>22/07/2025</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>731312</v>
+        <v>731330</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>BALCAO 1.2M ALLURE</t>
+          <t>MESA DE CABECEIRA BUZIOS</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2958,20 +2958,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>18/07/2025</t>
+          <t>23/07/2025</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>731315</v>
+        <v>731347</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ESTANTE CANELA</t>
+          <t>PAR FRAME PARA CABECEIRA 217X140X60</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2998,20 +2998,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>18/07/2025</t>
+          <t>23/07/2025</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>731317</v>
+        <v>731333</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RACK SAO FRANCISCO</t>
+          <t>PAINEL OURO PRETO</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3038,20 +3038,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>18/07/2025</t>
+          <t>23/07/2025</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>731318</v>
+        <v>731336</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
+          <t>RACK RUBI</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3078,20 +3078,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>21/07/2025</t>
+          <t>23/07/2025</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>731320</v>
+        <v>731338</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>RACK OURO PRETO</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3118,20 +3118,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>21/07/2025</t>
+          <t>23/07/2025</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>731322</v>
+        <v>731339</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3158,20 +3158,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>22/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>731323</v>
+        <v>731332</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
+          <t>TORRE QUENTE 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3198,20 +3198,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>22/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>731324</v>
+        <v>731340</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M SELENE</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3238,20 +3238,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>22/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>731326</v>
+        <v>731341</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
+          <t>MODULO RIPADO 0.4</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3278,20 +3278,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>22/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>731327</v>
+        <v>731343</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>CABECEIRA LARANJEIRAS 2.4</t>
+          <t>TORRE SIMPLES 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3318,20 +3318,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>22/07/2025</t>
+          <t>25/07/2025</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>731328</v>
+        <v>731344</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>HOME MUNIQUE</t>
+          <t>RACK ISTAMBUL</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3358,16 +3358,16 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>22/07/2025</t>
+          <t>25/07/2025</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>731330</v>
+        <v>731345</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3398,20 +3398,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>25/07/2025</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>731347</v>
+        <v>731346</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>PAR FRAME PARA CABECEIRA 217X140X60</t>
+          <t>BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3438,20 +3438,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>25/07/2025</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>731333</v>
+        <v>731348</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>PAINEL OURO PRETO</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3478,20 +3478,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>26/07/2025</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>731336</v>
+        <v>731349</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>RACK RUBI</t>
+          <t>PRATELEIRA CURVA 1.4</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3518,20 +3518,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>26/07/2025</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>731338</v>
+        <v>731351</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>RACK OURO PRETO</t>
+          <t>PRATELEIRA CURVA 2.2</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3558,20 +3558,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>26/07/2025</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>731339</v>
+        <v>731353</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+          <t>NICHO CURVO 1.4</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3598,20 +3598,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>24/07/2025</t>
+          <t>26/07/2025</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>731332</v>
+        <v>731355</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>TORRE QUENTE 0.7M ALLURE</t>
+          <t>NICHO CURVO 2.2</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3638,20 +3638,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>24/07/2025</t>
+          <t>25/07/2025</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>731340</v>
+        <v>732118</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>KIT PDV COZINHA ATENA</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3678,20 +3678,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>24/07/2025</t>
+          <t>25/07/2025</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>731341</v>
+        <v>732122</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>KIT PDV COZINHA ALLURE</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3718,20 +3718,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>24/07/2025</t>
+          <t>25/07/2025</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>731343</v>
+        <v>732125</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>TORRE SIMPLES 0.7M ALLURE</t>
+          <t>KIT PDV COZINHA SELENE</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3750,366 +3750,6 @@
         </is>
       </c>
       <c r="H83" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>25/07/2025</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>731344</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>RACK ISTAMBUL</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>25/07/2025</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>731345</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>MESA DE CABECEIRA BUZIOS</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>25/07/2025</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>731346</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>BALCAO 1.2M SELENE</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>25/07/2025</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>731348</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>26/07/2025</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>731353</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>NICHO CURVO 1.4</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>26/07/2025</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>731355</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>NICHO CURVO 2.2</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>25/07/2025</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>732118</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>KIT PDV COZINHA ATENA</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>25/07/2025</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>732122</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>KIT PDV COZINHA ALLURE</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>25/07/2025</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>732125</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>KIT PDV COZINHA SELENE</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
         <is>
           <t>N/C</t>
         </is>

--- a/03 - mapa-producao/Outros/Mapa_Copia.xlsx
+++ b/03 - mapa-producao/Outros/Mapa_Copia.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -723,7 +723,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -803,7 +803,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -883,7 +883,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -923,7 +923,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>09/07/2025</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>09/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10/07/2025</t>
+          <t>11/07/2025</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>12/07/2025</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>12/07/2025</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>11/07/2025</t>
+          <t>12/07/2025</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>14/07/2025</t>
+          <t>15/07/2025</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>15/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>15/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>15/07/2025</t>
+          <t>16/07/2025</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16/07/2025</t>
+          <t>17/07/2025</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16/07/2025</t>
+          <t>17/07/2025</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16/07/2025</t>
+          <t>17/07/2025</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>17/07/2025</t>
+          <t>18/07/2025</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>17/07/2025</t>
+          <t>18/07/2025</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>17/07/2025</t>
+          <t>18/07/2025</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>18/07/2025</t>
+          <t>21/07/2025</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>18/07/2025</t>
+          <t>21/07/2025</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>22/07/2025</t>
+          <t>23/07/2025</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>22/07/2025</t>
+          <t>23/07/2025</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>23/07/2025</t>
+          <t>24/07/2025</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>24/07/2025</t>
+          <t>25/07/2025</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>25/07/2025</t>
+          <t>26/07/2025</t>
         </is>
       </c>
       <c r="C76" t="n">
